--- a/paso2_multiclass_7500_LR_KNN_CART_RFC.xlsx
+++ b/paso2_multiclass_7500_LR_KNN_CART_RFC.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.7708557878853202</v>
+        <v>0.7689200680272109</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7115757706402241</v>
+        <v>0.6732568027210885</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8346626428109506</v>
+        <v>0.8382227891156463</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8398361715887045</v>
+        <v>0.8312074829931972</v>
       </c>
     </row>
   </sheetData>
